--- a/TSADB.xlsx
+++ b/TSADB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\NSTGRO 2020\DesignAlgorithmTSA_IROS2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\NSTGRO 2020\TSA-Design-Algorithm-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E11DF-9ACA-4C60-B2AD-CBED020619FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2BD519-B784-4E1D-839F-14463E800F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="74">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -75,36 +75,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Length [mm]</t>
-  </si>
-  <si>
-    <t>Width [mm]</t>
-  </si>
-  <si>
-    <t>Depth [mm]</t>
-  </si>
-  <si>
-    <t>Boxed Volume [mm^3]</t>
-  </si>
-  <si>
-    <t>Mass [g]</t>
-  </si>
-  <si>
-    <t>No Load RPM</t>
-  </si>
-  <si>
-    <t>No-Load Current (A)</t>
-  </si>
-  <si>
-    <t>Stall Current (kg*cm)</t>
-  </si>
-  <si>
-    <t>Stall Torque (kg*cm)</t>
-  </si>
-  <si>
-    <t>Nominal Voltage</t>
   </si>
   <si>
     <t>Cost</t>
@@ -221,9 +191,6 @@
     <t>Mouser</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>290-006</t>
   </si>
   <si>
@@ -246,9 +213,6 @@
   </si>
   <si>
     <t>MSM957141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA </t>
   </si>
   <si>
     <t>MSM957188</t>
@@ -294,6 +258,36 @@
   </si>
   <si>
     <t>BCI-42.40-B00</t>
+  </si>
+  <si>
+    <t>Length_mm</t>
+  </si>
+  <si>
+    <t>Width_mm</t>
+  </si>
+  <si>
+    <t>Depth_mm</t>
+  </si>
+  <si>
+    <t>BoxedVolume_mm3</t>
+  </si>
+  <si>
+    <t>Mass_g</t>
+  </si>
+  <si>
+    <t>NoLoadRPM</t>
+  </si>
+  <si>
+    <t>NoLoadCurrent_A</t>
+  </si>
+  <si>
+    <t>StallCurrent_kgcm</t>
+  </si>
+  <si>
+    <t>Stall Torque_kgcm</t>
+  </si>
+  <si>
+    <t>NominalVoltage</t>
   </si>
 </sst>
 </file>
@@ -589,14 +583,15 @@
   </sheetPr>
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C300" sqref="C300"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.453125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -610,48 +605,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>3074</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6">
         <v>26</v>
@@ -690,13 +685,13 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>3048</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6">
         <v>26</v>
@@ -735,13 +730,13 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>4789</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>26</v>
@@ -780,13 +775,13 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>3049</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <v>26</v>
@@ -825,13 +820,13 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>3050</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6">
         <v>26</v>
@@ -870,13 +865,13 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>3051</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6">
         <v>26</v>
@@ -915,13 +910,13 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5">
         <v>3052</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6">
         <v>26</v>
@@ -960,13 +955,13 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5">
         <v>3053</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6">
         <v>26</v>
@@ -1005,13 +1000,13 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B10" s="5">
         <v>3054</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
         <v>26</v>
@@ -1050,13 +1045,13 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5">
         <v>3055</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6">
         <v>26</v>
@@ -1095,13 +1090,13 @@
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5">
         <v>3056</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
         <v>26</v>
@@ -1140,13 +1135,13 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B13" s="5">
         <v>4799</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6">
         <v>26</v>
@@ -1185,13 +1180,13 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B14" s="5">
         <v>3057</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6">
         <v>26</v>
@@ -1230,13 +1225,13 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="5">
         <v>3486</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6">
         <v>43.2</v>
@@ -1275,13 +1270,13 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B16" s="5">
         <v>3487</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6">
         <v>43.2</v>
@@ -1320,13 +1315,13 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B17" s="5">
         <v>3488</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6">
         <v>43.2</v>
@@ -1365,13 +1360,13 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B18" s="5">
         <v>3489</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6">
         <v>43.2</v>
@@ -1410,13 +1405,13 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B19" s="5">
         <v>3490</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6">
         <v>43.2</v>
@@ -1455,13 +1450,13 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B20" s="5">
         <v>3491</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6">
         <v>43.2</v>
@@ -1500,13 +1495,13 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B21" s="5">
         <v>3492</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D21" s="6">
         <v>43.2</v>
@@ -1545,13 +1540,13 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B22" s="5">
         <v>3493</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D22" s="6">
         <v>43.2</v>
@@ -1590,13 +1585,13 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B23" s="5">
         <v>3494</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D23" s="6">
         <v>43.2</v>
@@ -1635,13 +1630,13 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B24" s="5">
         <v>3495</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6">
         <v>43.2</v>
@@ -1680,13 +1675,13 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B25" s="5">
         <v>3496</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6">
         <v>43.2</v>
@@ -1725,13 +1720,13 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B26" s="5">
         <v>3497</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D26" s="6">
         <v>43.2</v>
@@ -1770,13 +1765,13 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B27" s="5">
         <v>4840</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6">
         <v>46</v>
@@ -1815,13 +1810,13 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B28" s="5">
         <v>4841</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6">
         <v>63</v>
@@ -1860,13 +1855,13 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B29" s="5">
         <v>4842</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D29" s="6">
         <v>63</v>
@@ -1905,13 +1900,13 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B30" s="5">
         <v>4843</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6">
         <v>63</v>
@@ -1950,13 +1945,13 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B31" s="5">
         <v>4844</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6">
         <v>63</v>
@@ -1995,13 +1990,13 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B32" s="5">
         <v>4845</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D32" s="6">
         <v>63</v>
@@ -2040,13 +2035,13 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B33" s="5">
         <v>4846</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D33" s="6">
         <v>63</v>
@@ -2085,13 +2080,13 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B34" s="5">
         <v>4847</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D34" s="6">
         <v>63</v>
@@ -2130,13 +2125,13 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B35" s="5">
         <v>4860</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D35" s="6">
         <v>46</v>
@@ -2175,13 +2170,13 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B36" s="5">
         <v>4861</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6">
         <v>63</v>
@@ -2220,13 +2215,13 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B37" s="5">
         <v>4862</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D37" s="6">
         <v>63</v>
@@ -2265,13 +2260,13 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B38" s="5">
         <v>4863</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
         <v>63</v>
@@ -2310,13 +2305,13 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B39" s="5">
         <v>4864</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39" s="6">
         <v>63</v>
@@ -2355,13 +2350,13 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B40" s="5">
         <v>4865</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D40" s="6">
         <v>63</v>
@@ -2400,13 +2395,13 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B41" s="5">
         <v>4866</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" s="6">
         <v>63</v>
@@ -2445,13 +2440,13 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B42" s="5">
         <v>4867</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" s="6">
         <v>63</v>
@@ -2490,13 +2485,13 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B43" s="5">
         <v>4868</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D43" s="6">
         <v>63</v>
@@ -2535,13 +2530,13 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B44" s="5">
         <v>4869</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6">
         <v>63</v>
@@ -2580,13 +2575,13 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B45" s="5">
         <v>4880</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D45" s="5">
         <v>46</v>
@@ -2625,13 +2620,13 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B46" s="5">
         <v>4881</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D46" s="5">
         <v>63</v>
@@ -2670,13 +2665,13 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B47" s="5">
         <v>4882</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D47" s="5">
         <v>63</v>
@@ -2715,13 +2710,13 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B48" s="5">
         <v>4883</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D48" s="5">
         <v>65</v>
@@ -2760,13 +2755,13 @@
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B49" s="5">
         <v>4884</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D49" s="5">
         <v>67</v>
@@ -2805,13 +2800,13 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B50" s="5">
         <v>4885</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D50" s="5">
         <v>67</v>
@@ -2850,13 +2845,13 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B51" s="5">
         <v>4886</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D51" s="5">
         <v>69</v>
@@ -2895,13 +2890,13 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B52" s="5">
         <v>4887</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D52" s="5">
         <v>69</v>
@@ -2940,13 +2935,13 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B53" s="5">
         <v>4888</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D53" s="5">
         <v>71</v>
@@ -2985,13 +2980,13 @@
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B54" s="5">
         <v>4889</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" s="5">
         <v>71</v>
@@ -3030,13 +3025,13 @@
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B55" s="5">
         <v>4890</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D55" s="5">
         <v>73</v>
@@ -3075,13 +3070,13 @@
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B56" s="5">
         <v>4750</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D56" s="5">
         <v>46.5</v>
@@ -3120,13 +3115,13 @@
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B57" s="5">
         <v>3082</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D57" s="5">
         <v>26</v>
@@ -3165,13 +3160,13 @@
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B58" s="5">
         <v>3071</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D58" s="5">
         <v>26</v>
@@ -3210,13 +3205,13 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B59" s="5">
         <v>4787</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D59" s="5">
         <v>26</v>
@@ -3255,13 +3250,13 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B60" s="5">
         <v>3072</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D60" s="5">
         <v>26</v>
@@ -3300,13 +3295,13 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B61" s="5">
         <v>3073</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D61" s="5">
         <v>26</v>
@@ -3345,13 +3340,13 @@
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B62" s="5">
         <v>3074</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D62" s="5">
         <v>26</v>
@@ -3390,13 +3385,13 @@
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B63" s="5">
         <v>3075</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D63" s="5">
         <v>26</v>
@@ -3435,13 +3430,13 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B64" s="5">
         <v>3076</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D64" s="5">
         <v>26</v>
@@ -3480,13 +3475,13 @@
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B65" s="5">
         <v>3077</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D65" s="5">
         <v>26</v>
@@ -3525,13 +3520,13 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B66" s="5">
         <v>3078</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D66" s="5">
         <v>26</v>
@@ -3570,13 +3565,13 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B67" s="5">
         <v>3079</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D67" s="5">
         <v>26</v>
@@ -3615,13 +3610,13 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B68" s="5">
         <v>4797</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D68" s="5">
         <v>26</v>
@@ -3660,13 +3655,13 @@
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B69" s="5">
         <v>3080</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D69" s="5">
         <v>29.5</v>
@@ -3705,13 +3700,13 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B70" s="5">
         <v>2210</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D70" s="5">
         <v>26</v>
@@ -3750,13 +3745,13 @@
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B71" s="5">
         <v>2211</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D71" s="5">
         <v>26</v>
@@ -3795,13 +3790,13 @@
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B72" s="5">
         <v>4785</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D72" s="5">
         <v>26</v>
@@ -3840,13 +3835,13 @@
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B73" s="5">
         <v>2212</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D73" s="5">
         <v>26</v>
@@ -3885,13 +3880,13 @@
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B74" s="5">
         <v>2213</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D74" s="5">
         <v>26</v>
@@ -3930,13 +3925,13 @@
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B75" s="5">
         <v>2215</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D75" s="5">
         <v>26</v>
@@ -3975,13 +3970,13 @@
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B76" s="5">
         <v>2214</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D76" s="5">
         <v>26</v>
@@ -4020,13 +4015,13 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B77" s="5">
         <v>2386</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D77" s="5">
         <v>26</v>
@@ -4065,13 +4060,13 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B78" s="5">
         <v>2216</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D78" s="5">
         <v>26</v>
@@ -4110,13 +4105,13 @@
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B79" s="5">
         <v>2217</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D79" s="5">
         <v>26</v>
@@ -4155,13 +4150,13 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B80" s="5">
         <v>2218</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D80" s="5">
         <v>26</v>
@@ -4200,13 +4195,13 @@
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B81" s="5">
         <v>4795</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D81" s="5">
         <v>26</v>
@@ -4245,13 +4240,13 @@
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B82" s="5">
         <v>2373</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D82" s="5">
         <v>29.5</v>
@@ -4290,13 +4285,13 @@
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B83" s="5">
         <v>2376</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D83" s="5">
         <v>26</v>
@@ -4335,13 +4330,13 @@
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B84" s="5">
         <v>2377</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D84" s="5">
         <v>26</v>
@@ -4380,13 +4375,13 @@
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B85" s="5">
         <v>4783</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D85" s="5">
         <v>26</v>
@@ -4425,13 +4420,13 @@
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B86" s="5">
         <v>2378</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D86" s="5">
         <v>26</v>
@@ -4470,13 +4465,13 @@
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B87" s="5">
         <v>2379</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D87" s="5">
         <v>26</v>
@@ -4515,13 +4510,13 @@
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B88" s="5">
         <v>2380</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D88" s="5">
         <v>26</v>
@@ -4560,13 +4555,13 @@
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B89" s="5">
         <v>2381</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D89" s="5">
         <v>26</v>
@@ -4605,13 +4600,13 @@
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B90" s="5">
         <v>2382</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D90" s="5">
         <v>26</v>
@@ -4650,13 +4645,13 @@
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B91" s="5">
         <v>2383</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D91" s="5">
         <v>26</v>
@@ -4695,13 +4690,13 @@
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B92" s="5">
         <v>2384</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D92" s="5">
         <v>26</v>
@@ -4740,13 +4735,13 @@
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B93" s="5">
         <v>2385</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D93" s="5">
         <v>26</v>
@@ -4785,13 +4780,13 @@
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B94" s="5">
         <v>4793</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D94" s="5">
         <v>26</v>
@@ -4830,13 +4825,13 @@
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B95" s="5">
         <v>3059</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D95" s="5">
         <v>29.5</v>
@@ -4875,13 +4870,13 @@
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B96" s="5">
         <v>2200</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D96" s="5">
         <v>26</v>
@@ -4920,13 +4915,13 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B97" s="5">
         <v>2201</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D97" s="5">
         <v>26</v>
@@ -4965,13 +4960,13 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B98" s="5">
         <v>4781</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D98" s="5">
         <v>26</v>
@@ -5010,13 +5005,13 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B99" s="5">
         <v>2202</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D99" s="5">
         <v>26</v>
@@ -5055,13 +5050,13 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B100" s="5">
         <v>2203</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D100" s="5">
         <v>26</v>
@@ -5100,13 +5095,13 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B101" s="5">
         <v>2209</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D101" s="5">
         <v>26</v>
@@ -5145,13 +5140,13 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B102" s="5">
         <v>2204</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D102" s="5">
         <v>26</v>
@@ -5190,13 +5185,13 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B103" s="5">
         <v>2205</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D103" s="5">
         <v>26</v>
@@ -5235,13 +5230,13 @@
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B104" s="5">
         <v>2206</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D104" s="5">
         <v>26</v>
@@ -5280,13 +5275,13 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B105" s="5">
         <v>2207</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D105" s="5">
         <v>26</v>
@@ -5325,13 +5320,13 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B106" s="5">
         <v>2208</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D106" s="5">
         <v>26</v>
@@ -5370,13 +5365,13 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B107" s="5">
         <v>4791</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D107" s="5">
         <v>26</v>
@@ -5415,13 +5410,13 @@
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B108" s="5">
         <v>3058</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D108" s="5">
         <v>29.5</v>
@@ -5460,13 +5455,13 @@
     </row>
     <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B109" s="5">
         <v>3712</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D109" s="5">
         <v>43.2</v>
@@ -5505,13 +5500,13 @@
     </row>
     <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B110" s="5">
         <v>3713</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D110" s="5">
         <v>43.2</v>
@@ -5550,13 +5545,13 @@
     </row>
     <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B111" s="5">
         <v>3714</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D111" s="5">
         <v>44.7</v>
@@ -5595,13 +5590,13 @@
     </row>
     <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B112" s="5">
         <v>3715</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D112" s="5">
         <v>44.7</v>
@@ -5640,13 +5635,13 @@
     </row>
     <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B113" s="5">
         <v>3716</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D113" s="5">
         <v>46.2</v>
@@ -5685,13 +5680,13 @@
     </row>
     <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B114" s="5">
         <v>3717</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D114" s="5">
         <v>46.2</v>
@@ -5730,13 +5725,13 @@
     </row>
     <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B115" s="5">
         <v>3718</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D115" s="5">
         <v>46.2</v>
@@ -5775,13 +5770,13 @@
     </row>
     <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B116" s="5">
         <v>3719</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D116" s="5">
         <v>46.2</v>
@@ -5820,13 +5815,13 @@
     </row>
     <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B117" s="5">
         <v>3720</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D117" s="5">
         <v>47.7</v>
@@ -5865,13 +5860,13 @@
     </row>
     <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B118" s="5">
         <v>3721</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D118" s="5">
         <v>47.7</v>
@@ -5910,13 +5905,13 @@
     </row>
     <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B119" s="5">
         <v>3722</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D119" s="5">
         <v>47.7</v>
@@ -5955,13 +5950,13 @@
     </row>
     <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B120" s="5">
         <v>3723</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D120" s="5">
         <v>47.4</v>
@@ -6000,13 +5995,13 @@
     </row>
     <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B121" s="5">
         <v>3462</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D121" s="5">
         <v>41</v>
@@ -6045,13 +6040,13 @@
     </row>
     <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B122" s="5">
         <v>3463</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D122" s="5">
         <v>41</v>
@@ -6090,13 +6085,13 @@
     </row>
     <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B123" s="5">
         <v>3464</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D123" s="5">
         <v>43</v>
@@ -6135,13 +6130,13 @@
     </row>
     <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B124" s="5">
         <v>3465</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D124" s="5">
         <v>43</v>
@@ -6180,13 +6175,13 @@
     </row>
     <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B125" s="5">
         <v>3466</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D125" s="5">
         <v>44</v>
@@ -6225,13 +6220,13 @@
     </row>
     <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B126" s="5">
         <v>3467</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D126" s="5">
         <v>44</v>
@@ -6270,13 +6265,13 @@
     </row>
     <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B127" s="5">
         <v>3468</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D127" s="5">
         <v>44</v>
@@ -6315,13 +6310,13 @@
     </row>
     <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B128" s="5">
         <v>3469</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D128" s="5">
         <v>44</v>
@@ -6360,13 +6355,13 @@
     </row>
     <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B129" s="5">
         <v>3470</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D129" s="5">
         <v>46</v>
@@ -6405,13 +6400,13 @@
     </row>
     <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B130" s="5">
         <v>3471</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D130" s="5">
         <v>46</v>
@@ -6450,13 +6445,13 @@
     </row>
     <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B131" s="5">
         <v>3472</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D131" s="5">
         <v>46</v>
@@ -6495,13 +6490,13 @@
     </row>
     <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B132" s="5">
         <v>3473</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D132" s="5">
         <v>46</v>
@@ -6540,13 +6535,13 @@
     </row>
     <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B133" s="5">
         <v>4800</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D133" s="5">
         <v>46</v>
@@ -6585,13 +6580,13 @@
     </row>
     <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B134" s="5">
         <v>4801</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D134" s="5">
         <v>63</v>
@@ -6630,13 +6625,13 @@
     </row>
     <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B135" s="5">
         <v>4802</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D135" s="5">
         <v>63</v>
@@ -6675,13 +6670,13 @@
     </row>
     <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B136" s="5">
         <v>4803</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D136" s="5">
         <v>65</v>
@@ -6720,13 +6715,13 @@
     </row>
     <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B137" s="5">
         <v>4804</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D137" s="5">
         <v>67</v>
@@ -6765,13 +6760,13 @@
     </row>
     <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B138" s="5">
         <v>4805</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D138" s="5">
         <v>67</v>
@@ -6810,13 +6805,13 @@
     </row>
     <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B139" s="5">
         <v>4806</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D139" s="5">
         <v>69</v>
@@ -6855,13 +6850,13 @@
     </row>
     <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B140" s="5">
         <v>4807</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D140" s="5">
         <v>69</v>
@@ -6900,13 +6895,13 @@
     </row>
     <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B141" s="5">
         <v>4808</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D141" s="5">
         <v>71</v>
@@ -6945,13 +6940,13 @@
     </row>
     <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B142" s="5">
         <v>4820</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D142" s="5">
         <v>46</v>
@@ -6990,13 +6985,13 @@
     </row>
     <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B143" s="5">
         <v>4821</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D143" s="5">
         <v>63</v>
@@ -7035,13 +7030,13 @@
     </row>
     <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B144" s="5">
         <v>4822</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D144" s="5">
         <v>63</v>
@@ -7080,13 +7075,13 @@
     </row>
     <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B145" s="5">
         <v>4823</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D145" s="5">
         <v>65</v>
@@ -7125,13 +7120,13 @@
     </row>
     <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B146" s="5">
         <v>4824</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D146" s="5">
         <v>67</v>
@@ -7170,13 +7165,13 @@
     </row>
     <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B147" s="5">
         <v>4825</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D147" s="5">
         <v>67</v>
@@ -7215,13 +7210,13 @@
     </row>
     <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B148" s="5">
         <v>4826</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D148" s="5">
         <v>69</v>
@@ -7260,13 +7255,13 @@
     </row>
     <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B149" s="5">
         <v>4827</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D149" s="5">
         <v>69</v>
@@ -7305,13 +7300,13 @@
     </row>
     <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B150" s="5">
         <v>4828</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D150" s="5">
         <v>71</v>
@@ -7350,13 +7345,13 @@
     </row>
     <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B151" s="5">
         <v>4829</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D151" s="5">
         <v>71</v>
@@ -7395,13 +7390,13 @@
     </row>
     <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B152" s="5">
         <v>4830</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D152" s="5">
         <v>73</v>
@@ -7440,13 +7435,13 @@
     </row>
     <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B153" s="5">
         <v>4831</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D153" s="5">
         <v>73</v>
@@ -7485,13 +7480,13 @@
     </row>
     <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B154" s="8">
         <v>4750</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D154" s="8">
         <v>46.5</v>
@@ -7530,13 +7525,13 @@
     </row>
     <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B155" s="8">
         <v>4757</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D155" s="8">
         <v>65</v>
@@ -7575,13 +7570,13 @@
     </row>
     <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B156" s="8">
         <v>4758</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D156" s="8">
         <v>65</v>
@@ -7620,13 +7615,13 @@
     </row>
     <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B157" s="8">
         <v>4751</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D157" s="8">
         <v>65</v>
@@ -7665,13 +7660,13 @@
     </row>
     <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B158" s="8">
         <v>4752</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D158" s="8">
         <v>65</v>
@@ -7710,13 +7705,13 @@
     </row>
     <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B159" s="8">
         <v>4753</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D159" s="8">
         <v>65</v>
@@ -7755,13 +7750,13 @@
     </row>
     <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B160" s="8">
         <v>4745</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D160" s="8">
         <v>65</v>
@@ -7800,13 +7795,13 @@
     </row>
     <row r="161" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B161" s="8">
         <v>4755</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D161" s="8">
         <v>65</v>
@@ -7845,13 +7840,13 @@
     </row>
     <row r="162" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B162" s="8">
         <v>4756</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D162" s="8">
         <v>65</v>
@@ -7890,13 +7885,13 @@
     </row>
     <row r="163" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B163" s="8">
         <v>2828</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D163" s="8">
         <v>65</v>
@@ -7935,13 +7930,13 @@
     </row>
     <row r="164" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B164" s="5">
         <v>4690</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D164" s="5">
         <v>46.5</v>
@@ -7980,13 +7975,13 @@
     </row>
     <row r="165" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B165" s="5">
         <v>4698</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D165" s="5">
         <v>65</v>
@@ -8025,13 +8020,13 @@
     </row>
     <row r="166" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B166" s="5">
         <v>4699</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D166" s="5">
         <v>65</v>
@@ -8070,13 +8065,13 @@
     </row>
     <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B167" s="5">
         <v>4691</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D167" s="5">
         <v>68</v>
@@ -8115,13 +8110,13 @@
     </row>
     <row r="168" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B168" s="5">
         <v>4692</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D168" s="5">
         <v>68</v>
@@ -8160,13 +8155,13 @@
     </row>
     <row r="169" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B169" s="5">
         <v>4693</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D169" s="5">
         <v>70</v>
@@ -8205,13 +8200,13 @@
     </row>
     <row r="170" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B170" s="5">
         <v>4694</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D170" s="5">
         <v>70</v>
@@ -8250,13 +8245,13 @@
     </row>
     <row r="171" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B171" s="5">
         <v>4695</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D171" s="5">
         <v>72.5</v>
@@ -8295,13 +8290,13 @@
     </row>
     <row r="172" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B172" s="5">
         <v>4696</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D172" s="5">
         <v>72.5</v>
@@ -8340,13 +8335,13 @@
     </row>
     <row r="173" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B173" s="5">
         <v>4697</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D173" s="5">
         <v>72.5</v>
@@ -8385,13 +8380,13 @@
     </row>
     <row r="174" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B174" s="5">
         <v>638336</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D174" s="5">
         <v>78.5</v>
@@ -8430,13 +8425,13 @@
     </row>
     <row r="175" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B175" s="5">
         <v>638106</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D175" s="5">
         <v>35.299999999999997</v>
@@ -8475,13 +8470,13 @@
     </row>
     <row r="176" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B176" s="5">
         <v>638110</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D176" s="5">
         <v>35.299999999999997</v>
@@ -8520,13 +8515,13 @@
     </row>
     <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B177" s="5">
         <v>638114</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D177" s="5">
         <v>35.299999999999997</v>
@@ -8565,13 +8560,13 @@
     </row>
     <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B178" s="5">
         <v>638118</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D178" s="5">
         <v>35.299999999999997</v>
@@ -8610,13 +8605,13 @@
     </row>
     <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B179" s="5">
         <v>638122</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D179" s="5">
         <v>35.299999999999997</v>
@@ -8655,13 +8650,13 @@
     </row>
     <row r="180" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B180" s="5">
         <v>638126</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D180" s="5">
         <v>35.299999999999997</v>
@@ -8700,13 +8695,13 @@
     </row>
     <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B181" s="5">
         <v>638130</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D181" s="5">
         <v>35.299999999999997</v>
@@ -8745,13 +8740,13 @@
     </row>
     <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B182" s="5">
         <v>638134</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D182" s="5">
         <v>35.299999999999997</v>
@@ -8790,13 +8785,13 @@
     </row>
     <row r="183" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B183" s="5">
         <v>638138</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D183" s="5">
         <v>35.299999999999997</v>
@@ -8835,13 +8830,13 @@
     </row>
     <row r="184" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B184" s="5">
         <v>638380</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D184" s="5">
         <v>65.5</v>
@@ -8880,13 +8875,13 @@
     </row>
     <row r="185" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B185" s="5">
         <v>638382</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D185" s="5">
         <v>65.5</v>
@@ -8925,13 +8920,13 @@
     </row>
     <row r="186" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B186" s="5">
         <v>638384</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D186" s="5">
         <v>65.5</v>
@@ -8970,13 +8965,13 @@
     </row>
     <row r="187" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B187" s="5">
         <v>638386</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D187" s="5">
         <v>65.5</v>
@@ -9015,13 +9010,13 @@
     </row>
     <row r="188" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B188" s="5">
         <v>638388</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D188" s="5">
         <v>64.2</v>
@@ -9060,13 +9055,13 @@
     </row>
     <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B189" s="5">
         <v>638390</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D189" s="5">
         <v>64.2</v>
@@ -9105,13 +9100,13 @@
     </row>
     <row r="190" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B190" s="5">
         <v>638392</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D190" s="5">
         <v>64.2</v>
@@ -9150,13 +9145,13 @@
     </row>
     <row r="191" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B191" s="5">
         <v>638394</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D191" s="5">
         <v>64.2</v>
@@ -9195,13 +9190,13 @@
     </row>
     <row r="192" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B192" s="5">
         <v>638396</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D192" s="5">
         <v>64.2</v>
@@ -9240,13 +9235,13 @@
     </row>
     <row r="193" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B193" s="5">
         <v>638398</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D193" s="5">
         <v>64.599999999999994</v>
@@ -9285,13 +9280,13 @@
     </row>
     <row r="194" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B194" s="5">
         <v>638400</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D194" s="5">
         <v>61.1</v>
@@ -9330,13 +9325,13 @@
     </row>
     <row r="195" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B195" s="5">
         <v>638402</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D195" s="5">
         <v>61.1</v>
@@ -9375,13 +9370,13 @@
     </row>
     <row r="196" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B196" s="5">
         <v>638340</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D196" s="5">
         <v>76.8</v>
@@ -9420,14 +9415,14 @@
     </row>
     <row r="197" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B197" s="5">
         <f t="shared" ref="B197:B205" si="1">B196+2</f>
         <v>638342</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D197" s="5">
         <v>76.8</v>
@@ -9466,14 +9461,14 @@
     </row>
     <row r="198" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B198" s="5">
         <f t="shared" si="1"/>
         <v>638344</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D198" s="5">
         <v>76.8</v>
@@ -9512,14 +9507,14 @@
     </row>
     <row r="199" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B199" s="5">
         <f t="shared" si="1"/>
         <v>638346</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D199" s="5">
         <v>76.8</v>
@@ -9558,14 +9553,14 @@
     </row>
     <row r="200" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B200" s="5">
         <f t="shared" si="1"/>
         <v>638348</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D200" s="5">
         <v>74.8</v>
@@ -9604,14 +9599,14 @@
     </row>
     <row r="201" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B201" s="5">
         <f t="shared" si="1"/>
         <v>638350</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D201" s="5">
         <v>72.8</v>
@@ -9650,14 +9645,14 @@
     </row>
     <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B202" s="5">
         <f t="shared" si="1"/>
         <v>638352</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D202" s="5">
         <v>72.8</v>
@@ -9696,14 +9691,14 @@
     </row>
     <row r="203" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B203" s="5">
         <f t="shared" si="1"/>
         <v>638354</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D203" s="5">
         <v>72.8</v>
@@ -9742,14 +9737,14 @@
     </row>
     <row r="204" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B204" s="5">
         <f t="shared" si="1"/>
         <v>638356</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D204" s="5">
         <v>68.8</v>
@@ -9788,14 +9783,14 @@
     </row>
     <row r="205" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B205" s="5">
         <f t="shared" si="1"/>
         <v>638358</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D205" s="5">
         <v>68.8</v>
@@ -9834,13 +9829,13 @@
     </row>
     <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B206" s="5">
         <v>638142</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D206" s="5">
         <v>75.2</v>
@@ -9879,13 +9874,13 @@
     </row>
     <row r="207" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B207" s="5">
         <v>638150</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D207" s="5">
         <v>75.2</v>
@@ -9924,14 +9919,14 @@
     </row>
     <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B208" s="5">
         <f t="shared" ref="B208:B220" si="2">B207+4</f>
         <v>638154</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D208" s="5">
         <v>75.2</v>
@@ -9970,14 +9965,14 @@
     </row>
     <row r="209" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B209" s="5">
         <f t="shared" si="2"/>
         <v>638158</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D209" s="5">
         <v>72.7</v>
@@ -10016,14 +10011,14 @@
     </row>
     <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B210" s="5">
         <f t="shared" si="2"/>
         <v>638162</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D210" s="5">
         <v>72.7</v>
@@ -10062,14 +10057,14 @@
     </row>
     <row r="211" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B211" s="5">
         <f t="shared" si="2"/>
         <v>638166</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D211" s="5">
         <v>72.7</v>
@@ -10108,14 +10103,14 @@
     </row>
     <row r="212" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B212" s="5">
         <f t="shared" si="2"/>
         <v>638170</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D212" s="5">
         <v>69.2</v>
@@ -10154,14 +10149,14 @@
     </row>
     <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B213" s="5">
         <f t="shared" si="2"/>
         <v>638174</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D213" s="5">
         <v>69.2</v>
@@ -10200,14 +10195,14 @@
     </row>
     <row r="214" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B214" s="5">
         <f t="shared" si="2"/>
         <v>638178</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D214" s="5">
         <v>66.2</v>
@@ -10246,14 +10241,14 @@
     </row>
     <row r="215" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B215" s="5">
         <f t="shared" si="2"/>
         <v>638182</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D215" s="5">
         <v>66.2</v>
@@ -10292,14 +10287,14 @@
     </row>
     <row r="216" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B216" s="5">
         <f t="shared" si="2"/>
         <v>638186</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D216" s="5">
         <v>66.2</v>
@@ -10338,14 +10333,14 @@
     </row>
     <row r="217" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B217" s="5">
         <f t="shared" si="2"/>
         <v>638190</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D217" s="5">
         <v>66.2</v>
@@ -10384,14 +10379,14 @@
     </row>
     <row r="218" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B218" s="5">
         <f t="shared" si="2"/>
         <v>638194</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D218" s="5">
         <v>66.2</v>
@@ -10430,14 +10425,14 @@
     </row>
     <row r="219" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B219" s="5">
         <f t="shared" si="2"/>
         <v>638198</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D219" s="5">
         <v>66.2</v>
@@ -10476,14 +10471,14 @@
     </row>
     <row r="220" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B220" s="5">
         <f t="shared" si="2"/>
         <v>638202</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D220" s="5">
         <v>66.2</v>
@@ -10522,13 +10517,13 @@
     </row>
     <row r="221" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B221" s="5">
         <v>638222</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D221" s="5">
         <v>92.6</v>
@@ -10567,13 +10562,13 @@
     </row>
     <row r="222" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B222" s="5">
         <v>638234</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D222" s="5">
         <v>90.4</v>
@@ -10612,13 +10607,13 @@
     </row>
     <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B223" s="5">
         <v>638238</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D223" s="5">
         <v>90.4</v>
@@ -10657,13 +10652,13 @@
     </row>
     <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B224" s="5">
         <v>638242</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D224" s="5">
         <v>75</v>
@@ -10702,14 +10697,14 @@
     </row>
     <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B225" s="5">
         <f t="shared" ref="B225:B231" si="3">B224+2</f>
         <v>638244</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D225" s="5">
         <v>75</v>
@@ -10748,14 +10743,14 @@
     </row>
     <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B226" s="5">
         <f t="shared" si="3"/>
         <v>638246</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D226" s="5">
         <v>75</v>
@@ -10794,14 +10789,14 @@
     </row>
     <row r="227" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B227" s="5">
         <f t="shared" si="3"/>
         <v>638248</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D227" s="5">
         <v>75</v>
@@ -10840,14 +10835,14 @@
     </row>
     <row r="228" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B228" s="5">
         <f t="shared" si="3"/>
         <v>638250</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D228" s="5">
         <v>75</v>
@@ -10886,14 +10881,14 @@
     </row>
     <row r="229" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B229" s="5">
         <f t="shared" si="3"/>
         <v>638252</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D229" s="5">
         <v>71.3</v>
@@ -10932,14 +10927,14 @@
     </row>
     <row r="230" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B230" s="5">
         <f t="shared" si="3"/>
         <v>638254</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D230" s="5">
         <v>71.3</v>
@@ -10978,14 +10973,14 @@
     </row>
     <row r="231" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B231" s="5">
         <f t="shared" si="3"/>
         <v>638256</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D231" s="5">
         <v>71.3</v>
@@ -11024,13 +11019,13 @@
     </row>
     <row r="232" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B232" s="5">
         <v>638364</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D232" s="5">
         <v>71.3</v>
@@ -11069,14 +11064,14 @@
     </row>
     <row r="233" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B233" s="5">
         <f t="shared" ref="B233:B235" si="4">B232+2</f>
         <v>638366</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D233" s="5">
         <v>71.3</v>
@@ -11115,14 +11110,14 @@
     </row>
     <row r="234" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B234" s="5">
         <f t="shared" si="4"/>
         <v>638368</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D234" s="5">
         <v>67.900000000000006</v>
@@ -11161,14 +11156,14 @@
     </row>
     <row r="235" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B235" s="5">
         <f t="shared" si="4"/>
         <v>638370</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D235" s="5">
         <v>67.900000000000006</v>
@@ -11207,13 +11202,13 @@
     </row>
     <row r="236" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B236" s="5">
         <v>638258</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D236" s="5">
         <v>67.900000000000006</v>
@@ -11252,14 +11247,14 @@
     </row>
     <row r="237" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B237" s="5">
         <f t="shared" ref="B237:B238" si="5">B236+2</f>
         <v>638260</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D237" s="5">
         <v>67.900000000000006</v>
@@ -11298,14 +11293,14 @@
     </row>
     <row r="238" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B238" s="5">
         <f t="shared" si="5"/>
         <v>638262</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D238" s="5">
         <v>64.099999999999994</v>
@@ -11344,13 +11339,13 @@
     </row>
     <row r="239" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B239" s="5">
         <v>638263</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D239" s="5">
         <v>120.2</v>
@@ -11389,13 +11384,13 @@
     </row>
     <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B240" s="5">
         <v>638264</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D240" s="5">
         <v>120.2</v>
@@ -11434,14 +11429,14 @@
     </row>
     <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B241" s="5">
         <f t="shared" ref="B241:B251" si="6">B240+2</f>
         <v>638266</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D241" s="5">
         <v>120.2</v>
@@ -11480,14 +11475,14 @@
     </row>
     <row r="242" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B242" s="5">
         <f t="shared" si="6"/>
         <v>638268</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D242" s="5">
         <v>120.2</v>
@@ -11526,14 +11521,14 @@
     </row>
     <row r="243" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B243" s="5">
         <f t="shared" si="6"/>
         <v>638270</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D243" s="5">
         <v>120.2</v>
@@ -11572,14 +11567,14 @@
     </row>
     <row r="244" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B244" s="5">
         <f t="shared" si="6"/>
         <v>638272</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D244" s="5">
         <v>113.3</v>
@@ -11618,14 +11613,14 @@
     </row>
     <row r="245" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B245" s="5">
         <f t="shared" si="6"/>
         <v>638274</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D245" s="5">
         <v>113.3</v>
@@ -11664,14 +11659,14 @@
     </row>
     <row r="246" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B246" s="5">
         <f t="shared" si="6"/>
         <v>638276</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D246" s="5">
         <v>113.3</v>
@@ -11710,14 +11705,14 @@
     </row>
     <row r="247" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B247" s="5">
         <f t="shared" si="6"/>
         <v>638278</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D247" s="5">
         <v>113.3</v>
@@ -11756,14 +11751,14 @@
     </row>
     <row r="248" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B248" s="5">
         <f t="shared" si="6"/>
         <v>638280</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D248" s="5">
         <v>106.8</v>
@@ -11802,14 +11797,14 @@
     </row>
     <row r="249" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B249" s="5">
         <f t="shared" si="6"/>
         <v>638282</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D249" s="5">
         <v>106.8</v>
@@ -11848,14 +11843,14 @@
     </row>
     <row r="250" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B250" s="5">
         <f t="shared" si="6"/>
         <v>638284</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D250" s="5">
         <v>106.8</v>
@@ -11894,14 +11889,14 @@
     </row>
     <row r="251" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B251" s="5">
         <f t="shared" si="6"/>
         <v>638286</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D251" s="5">
         <v>100.4</v>
@@ -11940,13 +11935,13 @@
     </row>
     <row r="252" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D252" s="5">
         <v>132.80000000000001</v>
@@ -11985,13 +11980,13 @@
     </row>
     <row r="253" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D253" s="5">
         <v>123.5</v>
@@ -12030,13 +12025,13 @@
     </row>
     <row r="254" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D254" s="5">
         <v>123.5</v>
@@ -12075,13 +12070,13 @@
     </row>
     <row r="255" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D255" s="5">
         <v>123.5</v>
@@ -12120,13 +12115,13 @@
     </row>
     <row r="256" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D256" s="5">
         <v>123.8</v>
@@ -12165,13 +12160,13 @@
     </row>
     <row r="257" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D257" s="5">
         <v>116.5</v>
@@ -12210,13 +12205,13 @@
     </row>
     <row r="258" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D258" s="5">
         <v>116.5</v>
@@ -12255,13 +12250,13 @@
     </row>
     <row r="259" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D259" s="5">
         <v>116.8</v>
@@ -12300,13 +12295,13 @@
     </row>
     <row r="260" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D260" s="5">
         <v>108.8</v>
@@ -12345,13 +12340,13 @@
     </row>
     <row r="261" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C261" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D261" s="5">
         <v>108.5</v>
@@ -12390,13 +12385,13 @@
     </row>
     <row r="262" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D262" s="5">
         <v>108.8</v>
@@ -12435,13 +12430,13 @@
     </row>
     <row r="263" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D263" s="5">
         <v>134</v>
@@ -12480,13 +12475,13 @@
     </row>
     <row r="264" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D264" s="5">
         <v>125.1</v>
@@ -12525,13 +12520,13 @@
     </row>
     <row r="265" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D265" s="5">
         <v>125.1</v>
@@ -12570,13 +12565,13 @@
     </row>
     <row r="266" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D266" s="5">
         <v>125.1</v>
@@ -12615,13 +12610,13 @@
     </row>
     <row r="267" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D267" s="5">
         <v>125.1</v>
@@ -12660,13 +12655,13 @@
     </row>
     <row r="268" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D268" s="5">
         <v>116.4</v>
@@ -12705,13 +12700,13 @@
     </row>
     <row r="269" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D269" s="5">
         <v>116.4</v>
@@ -12750,13 +12745,13 @@
     </row>
     <row r="270" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D270" s="5">
         <v>116.4</v>
@@ -12795,13 +12790,13 @@
     </row>
     <row r="271" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D271" s="5">
         <v>107.5</v>
@@ -12840,13 +12835,13 @@
     </row>
     <row r="272" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D272" s="5">
         <v>107.5</v>
@@ -12885,13 +12880,13 @@
     </row>
     <row r="273" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D273" s="5">
         <v>107.5</v>
@@ -12930,13 +12925,13 @@
     </row>
     <row r="274" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D274" s="5">
         <v>134</v>
@@ -12975,13 +12970,13 @@
     </row>
     <row r="275" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D275" s="5">
         <v>125.1</v>
@@ -13020,13 +13015,13 @@
     </row>
     <row r="276" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D276" s="5">
         <v>125.1</v>
@@ -13065,13 +13060,13 @@
     </row>
     <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D277" s="5">
         <v>125.1</v>
@@ -13110,13 +13105,13 @@
     </row>
     <row r="278" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D278" s="5">
         <v>125.1</v>
@@ -13155,13 +13150,13 @@
     </row>
     <row r="279" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D279" s="5">
         <v>116.4</v>
@@ -13200,13 +13195,13 @@
     </row>
     <row r="280" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D280" s="5">
         <v>116.4</v>
@@ -13245,13 +13240,13 @@
     </row>
     <row r="281" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D281" s="5">
         <v>116.35</v>
@@ -13290,13 +13285,13 @@
     </row>
     <row r="282" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D282" s="5">
         <v>107.5</v>
@@ -13335,13 +13330,13 @@
     </row>
     <row r="283" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D283" s="5">
         <v>107.5</v>
@@ -13380,13 +13375,13 @@
     </row>
     <row r="284" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D284" s="5">
         <v>75</v>
@@ -13425,13 +13420,13 @@
     </row>
     <row r="285" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B285" s="5">
         <v>89850008</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D285" s="5">
         <v>112.6</v>
@@ -13470,13 +13465,13 @@
     </row>
     <row r="286" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B286" s="5">
         <v>80835004</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D286" s="5">
         <v>142.5</v>
@@ -13497,17 +13492,17 @@
       <c r="I286" s="5">
         <v>147</v>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K286" s="4" t="s">
-        <v>51</v>
+      <c r="J286" s="4">
+        <v>0</v>
+      </c>
+      <c r="K286" s="4">
+        <v>0</v>
       </c>
       <c r="L286" s="5">
         <v>50</v>
       </c>
-      <c r="M286" s="4" t="s">
-        <v>51</v>
+      <c r="M286" s="4">
+        <v>0</v>
       </c>
       <c r="N286" s="5">
         <v>295.11</v>
@@ -13515,13 +13510,13 @@
     </row>
     <row r="287" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B287" s="5">
         <v>82861014</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D287" s="5">
         <v>61.3</v>
@@ -13560,13 +13555,13 @@
     </row>
     <row r="288" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B288" s="5">
         <v>82862201</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D288" s="5">
         <v>68.099999999999994</v>
@@ -13605,13 +13600,13 @@
     </row>
     <row r="289" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D289" s="5">
         <v>52.5</v>
@@ -13626,8 +13621,8 @@
         <f t="shared" si="0"/>
         <v>25410</v>
       </c>
-      <c r="H289" s="4" t="s">
-        <v>51</v>
+      <c r="H289" s="4">
+        <v>0</v>
       </c>
       <c r="I289" s="5">
         <v>789</v>
@@ -13650,13 +13645,13 @@
     </row>
     <row r="290" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D290" s="5">
         <v>55.7</v>
@@ -13671,8 +13666,8 @@
         <f t="shared" si="0"/>
         <v>26958.800000000003</v>
       </c>
-      <c r="H290" s="4" t="s">
-        <v>51</v>
+      <c r="H290" s="4">
+        <v>0</v>
       </c>
       <c r="I290" s="5">
         <v>150</v>
@@ -13695,13 +13690,13 @@
     </row>
     <row r="291" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B291" s="5">
         <v>80804010</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D291" s="5">
         <v>89.4</v>
@@ -13740,13 +13735,13 @@
     </row>
     <row r="292" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B292" s="5">
         <v>82800502</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D292" s="5">
         <v>84.8</v>
@@ -13785,13 +13780,13 @@
     </row>
     <row r="293" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B293" s="5">
         <v>89810008</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D293" s="5">
         <v>71.400000000000006</v>
@@ -13830,13 +13825,13 @@
     </row>
     <row r="294" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B294" s="5">
         <v>89830012</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D294" s="5">
         <v>103</v>
@@ -13875,13 +13870,13 @@
     </row>
     <row r="295" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B295" s="5">
         <v>80350001</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D295" s="5">
         <v>140.6</v>
@@ -13920,13 +13915,13 @@
     </row>
     <row r="296" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B296" s="5">
         <v>80350001</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D296" s="5">
         <v>140.6</v>
@@ -13965,13 +13960,13 @@
     </row>
     <row r="297" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B297" s="5">
         <v>80350001</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D297" s="5">
         <v>140.6</v>
@@ -14010,13 +14005,13 @@
     </row>
     <row r="298" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B298" s="5">
         <v>80360001</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D298" s="5">
         <v>153.1</v>
@@ -14055,13 +14050,13 @@
     </row>
     <row r="299" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B299" s="5">
         <v>80360001</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D299" s="5">
         <v>153.1</v>
@@ -14100,13 +14095,13 @@
     </row>
     <row r="300" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B300" s="5">
         <v>80360001</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D300" s="5">
         <v>153.1</v>
@@ -14145,13 +14140,13 @@
     </row>
     <row r="301" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B301" s="5">
         <v>80370001</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D301" s="5">
         <v>178.1</v>
@@ -14190,13 +14185,13 @@
     </row>
     <row r="302" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B302" s="5">
         <v>80370001</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D302" s="5">
         <v>178.1</v>
@@ -14235,13 +14230,13 @@
     </row>
     <row r="303" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B303" s="5">
         <v>80370001</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D303" s="5">
         <v>178.1</v>
@@ -14280,13 +14275,13 @@
     </row>
     <row r="304" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B304" s="5">
         <v>80180506</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D304" s="5">
         <v>94.2</v>
@@ -14325,13 +14320,13 @@
     </row>
     <row r="305" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B305" s="4">
         <v>80149606</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D305" s="4">
         <v>118.9</v>
@@ -14349,17 +14344,17 @@
       <c r="H305" s="4">
         <v>1600</v>
       </c>
-      <c r="I305" s="4" t="s">
-        <v>51</v>
+      <c r="I305" s="4">
+        <v>0</v>
       </c>
       <c r="J305" s="4">
         <v>0.8</v>
       </c>
-      <c r="K305" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L305" s="4" t="s">
-        <v>51</v>
+      <c r="K305" s="4">
+        <v>0</v>
+      </c>
+      <c r="L305" s="4">
+        <v>0</v>
       </c>
       <c r="M305" s="4">
         <v>24</v>
@@ -14370,13 +14365,13 @@
     </row>
     <row r="306" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D306" s="4">
         <v>93.5</v>
@@ -14397,11 +14392,11 @@
       <c r="I306" s="4">
         <v>4000</v>
       </c>
-      <c r="J306" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K306" s="4" t="s">
-        <v>51</v>
+      <c r="J306" s="4">
+        <v>0</v>
+      </c>
+      <c r="K306" s="4">
+        <v>0</v>
       </c>
       <c r="L306" s="4">
         <v>1.2</v>
@@ -14415,13 +14410,13 @@
     </row>
     <row r="307" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D307" s="4">
         <v>113.5</v>
@@ -14442,11 +14437,11 @@
       <c r="I307" s="4">
         <v>4000</v>
       </c>
-      <c r="J307" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K307" s="4" t="s">
-        <v>51</v>
+      <c r="J307" s="4">
+        <v>0</v>
+      </c>
+      <c r="K307" s="4">
+        <v>0</v>
       </c>
       <c r="L307" s="4">
         <v>1.85</v>
@@ -14460,13 +14455,13 @@
     </row>
     <row r="308" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D308" s="4">
         <v>133.5</v>
@@ -14487,11 +14482,11 @@
       <c r="I308" s="4">
         <v>4000</v>
       </c>
-      <c r="J308" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K308" s="4" t="s">
-        <v>51</v>
+      <c r="J308" s="4">
+        <v>0</v>
+      </c>
+      <c r="K308" s="4">
+        <v>0</v>
       </c>
       <c r="L308" s="4">
         <v>2.5</v>
@@ -14505,13 +14500,13 @@
     </row>
     <row r="309" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D309" s="4">
         <v>108.3</v>
@@ -14532,11 +14527,11 @@
       <c r="I309" s="4">
         <v>3000</v>
       </c>
-      <c r="J309" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K309" s="4" t="s">
-        <v>51</v>
+      <c r="J309" s="4">
+        <v>0</v>
+      </c>
+      <c r="K309" s="4">
+        <v>0</v>
       </c>
       <c r="L309" s="4">
         <v>3</v>
@@ -14550,13 +14545,13 @@
     </row>
     <row r="310" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D310" s="4">
         <v>128.21</v>
@@ -14577,11 +14572,11 @@
       <c r="I310" s="4">
         <v>3000</v>
       </c>
-      <c r="J310" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K310" s="4" t="s">
-        <v>51</v>
+      <c r="J310" s="4">
+        <v>0</v>
+      </c>
+      <c r="K310" s="4">
+        <v>0</v>
       </c>
       <c r="L310" s="4">
         <v>4.5</v>
@@ -14595,13 +14590,13 @@
     </row>
     <row r="311" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D311" s="4">
         <v>148.19999999999999</v>
@@ -14622,11 +14617,11 @@
       <c r="I311" s="4">
         <v>3000</v>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K311" s="4" t="s">
-        <v>51</v>
+      <c r="J311" s="4">
+        <v>0</v>
+      </c>
+      <c r="K311" s="4">
+        <v>0</v>
       </c>
       <c r="L311" s="4">
         <v>6</v>
@@ -14640,13 +14635,13 @@
     </row>
     <row r="312" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B312" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="C312" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D312" s="4">
         <v>46</v>
@@ -14685,13 +14680,13 @@
     </row>
     <row r="313" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D313" s="4">
         <v>70</v>
@@ -14730,13 +14725,13 @@
     </row>
     <row r="314" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D314" s="4">
         <v>100</v>
@@ -14775,13 +14770,13 @@
     </row>
     <row r="315" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D315" s="4">
         <v>94</v>
@@ -14820,13 +14815,13 @@
     </row>
     <row r="316" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D316" s="4">
         <v>94</v>
@@ -14865,13 +14860,13 @@
     </row>
     <row r="317" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D317" s="4">
         <v>114</v>
@@ -14910,13 +14905,13 @@
     </row>
     <row r="318" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D318" s="4">
         <v>114</v>
@@ -14955,13 +14950,13 @@
     </row>
     <row r="319" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D319" s="4">
         <v>95</v>
@@ -15000,13 +14995,13 @@
     </row>
     <row r="320" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D320" s="4">
         <v>125</v>
@@ -15045,13 +15040,13 @@
     </row>
     <row r="321" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D321" s="4">
         <v>95</v>
@@ -15090,13 +15085,13 @@
     </row>
     <row r="322" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D322" s="4">
         <v>125</v>
@@ -15135,13 +15130,13 @@
     </row>
     <row r="323" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D323" s="4">
         <v>125</v>
@@ -15180,13 +15175,13 @@
     </row>
     <row r="324" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D324" s="4">
         <v>52</v>
@@ -15225,13 +15220,13 @@
     </row>
     <row r="325" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D325" s="4">
         <v>126.1</v>
@@ -15270,13 +15265,13 @@
     </row>
     <row r="326" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D326" s="4">
         <v>85</v>
@@ -15315,13 +15310,13 @@
     </row>
     <row r="327" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D327" s="4">
         <v>146</v>
